--- a/Excel/Práctica/11. Más funciones en Excel/Sumar.SI.xlsx
+++ b/Excel/Práctica/11. Más funciones en Excel/Sumar.SI.xlsx
@@ -2208,7 +2208,7 @@
   <dimension ref="A1:Q193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
